--- a/src/test/resources/testdataCMS/CMS_DATA.xlsx
+++ b/src/test/resources/testdataCMS/CMS_DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_FRAMEWORK\AutomationFrameworkSelenium\src\test\resources\testdataCMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E4D77C-F5CE-48A5-A7F4-362E2CB613BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1DE760-E4BD-4A64-B0B9-C2444EBE3CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="602" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,18 +77,6 @@
     <t>Cosy.png</t>
   </si>
   <si>
-    <t>Tet TaiLoc</t>
-  </si>
-  <si>
-    <t>chocopie</t>
-  </si>
-  <si>
-    <t>GOLDEN GIFT BOX The motifs are hand-molded or cast according to the most modern vacuum casting technology today, the product is processed in detail and meticulously then covered with a layer of 9999 pure gold on the entire surface. The face creates a set of high-class and luxurious products.</t>
-  </si>
-  <si>
-    <t>quatet.jpg</t>
-  </si>
-  <si>
     <t>category_name</t>
   </si>
   <si>
@@ -108,24 +96,28 @@
   </si>
   <si>
     <t>Laptop gaming, Laptop office</t>
+  </si>
+  <si>
+    <t>Giỏ quà Tết</t>
+  </si>
+  <si>
+    <t>quatet</t>
+  </si>
+  <si>
+    <t>Giỏ Quà Tết cao cấp, sang trọng dành cho mùa Tết 2024, hứa hẹn sẽ là món quà tinh thần ý nghĩa nhất cho người thân</t>
+  </si>
+  <si>
+    <t>gio-qua-2.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -141,14 +133,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,32 +155,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,13 +469,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
@@ -501,30 +483,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +520,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -552,43 +534,43 @@
     <col min="7" max="7" width="33.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18" style="4" customWidth="1"/>
     <col min="12" max="16384" width="8.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="25.2" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -605,7 +587,7 @@
       <c r="D2" s="3">
         <v>336</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="3">
@@ -627,9 +609,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="139.19999999999999">
+    <row r="3" spans="1:11" ht="52.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -638,13 +620,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="3">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3">
-        <v>836000</v>
+        <v>500000</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
@@ -653,20 +635,17 @@
         <v>300</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>